--- a/medicine/Enfance/Alice_en_Écosse/Alice_en_Écosse.xlsx
+++ b/medicine/Enfance/Alice_en_Écosse/Alice_en_Écosse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice_en_%C3%89cosse</t>
+          <t>Alice_en_Écosse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice en Écosse (titre original : The Clue of the Whistling Bagpipes, littéralement : L'énigme des cornemuses qui sifflent) est le quarante-et-unième[1] roman de la série Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de roman est Harriet Adams. 
+Alice en Écosse (titre original : The Clue of the Whistling Bagpipes, littéralement : L'énigme des cornemuses qui sifflent) est le quarante-et-unième roman de la série Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de roman est Harriet Adams. 
 Aux États-Unis, le roman a été publié pour la première fois en 1964 par Grosset &amp; Dunlap, New York. En France, il est paru pour la première fois en 1966 chez Hachette Jeunesse dans la collection Idéal-Bibliothèque sous le no 296. Il n'a plus été réédité en France depuis 2001.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alice_en_%C3%89cosse</t>
+          <t>Alice_en_Écosse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur les éditions cartonnées non abrégées parues de 1966 à 1984 en langue française.
 L'arrière grand-mère d'Alice demande à James Roy, le père d'Alice, de la rejoindre en Écosse afin de régler pour elle des affaires de donations et pour retrouver un souvenir de famille qui a disparu de son magnifique château. James Roy propose à sa fille de venir avec lui. Avant le départ, Alice reçoit une lettre lui ordonnant de ne pas se rendre en Écosse. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alice_en_%C3%89cosse</t>
+          <t>Alice_en_Écosse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,13 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Personnages récurrents
 Alice Roy : dix-huit ans, détective amateur, blonde, orpheline de mère, fille de James Roy.
-James Roy : avoué[2] de renom, père d'Alice Roy, veuf.
+James Roy : avoué de renom, père d'Alice Roy, veuf.
 Bess Taylor : jeune fille blonde et rondelette, une des meilleures amies d'Alice.
 Marion Webb : jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
 Ned Nickerson : jeune homme brun et athlétique, ami et chevalier servant d'Alice, étudiant à l'université d'Emerson.
@@ -559,7 +575,7 @@
 Togo : petit chien fox-terrier d'Alice.
 Personnages spécifiques à ce roman
 Lady Douglas : arrière grand-mère maternelle d'Alice, qui habite en Écosse.
-Cécile Roy[3] : tante d'Alice, sœur de James Roy, professeur à New York.
+Cécile Roy : tante d'Alice, sœur de James Roy, professeur à New York.
 Paul Petrie, alias Sandy Duff : malfaiteur.
 M. Rey : malfaiteur.
 Fiona Mac Guire : jeune femme, guide d'Alice en Écosse.
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alice_en_%C3%89cosse</t>
+          <t>Alice_en_Écosse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,16 +607,18 @@
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Note : Toutes les éditions ont paru aux éditions Hachette.
 1966 : Alice en Écosse — coll. « Idéal-Bibliothèque », cartonné (français, version originale). Traduction d'Anne Joba. Illustré par Albert Chazelle.
 1970 : Alice en Écosse — coll. « Bibliothèque verte », cartonné (français, version originale). Traduction d'Anne Joba. Illustré par Albert Chazelle. 20 chapitres. 192 p.  Réédité jusqu’en 1981.
-1984 : Alice en Écosse — coll. « Bibliothèque verte »[4], cartonné (français, version originale). Traduction d'Anne Joba. Couverture de Philippe Daure.
+1984 : Alice en Écosse — coll. « Bibliothèque verte », cartonné (français, version originale). Traduction d'Anne Joba. Couverture de Philippe Daure.
 1989 : Alice en Écosse — coll. « Bibliothèque verte » no 464, souple (français, version abrégée). Illustré par Philippe Daure.
-1993 : Alice en Écosse — coll. « Bibliothèque verte »[5], cartonné (français, version abrégée). Illustré par Philippe Daure (même dessin de couverture que celle de l'édition de 1989).
+1993 : Alice en Écosse — coll. « Bibliothèque verte », cartonné (français, version abrégée). Illustré par Philippe Daure (même dessin de couverture que celle de l'édition de 1989).
 1995 : Alice en Écosse — coll. « Bibliothèque verte », souple (français, version abrégée). Illustré par Philippe Daure (même dessin de couverture que celle de l'édition de 1984).
-2001 : Alice en Écosse — coll. « Bibliothèque verte »[6], souple (français, version abrégée). Illustré par Philippe Daure.</t>
+2001 : Alice en Écosse — coll. « Bibliothèque verte », souple (français, version abrégée). Illustré par Philippe Daure.</t>
         </is>
       </c>
     </row>
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alice_en_%C3%89cosse</t>
+          <t>Alice_en_Écosse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,7 +646,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman a été adapté en jeu vidéo par Her Interactive sous le titre Les Nouvelles Enquêtes de Nancy Drew : L'Espion silencieux.[réf. nécessaire]
 </t>
